--- a/myapp/app-server/data.xlsx
+++ b/myapp/app-server/data.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId7" sheetId="31"/>
-    <sheet name="projects" r:id="rId8" sheetId="32"/>
-    <sheet name="boards" r:id="rId9" sheetId="33"/>
+    <sheet name="users" r:id="rId7" sheetId="88"/>
+    <sheet name="projects" r:id="rId8" sheetId="89"/>
+    <sheet name="boards" r:id="rId9" sheetId="90"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="171">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -499,6 +499,42 @@
   </si>
   <si>
     <t>010-1414-1414</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>user15</t>
+  </si>
+  <si>
+    <t>user15@test.com</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>010-1515-1515</t>
+  </si>
+  <si>
+    <t>1,3,5,8</t>
+  </si>
+  <si>
+    <t>b9</t>
+  </si>
+  <si>
+    <t>2024-07-29 17:43:28</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>2024-07-29</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>13,15</t>
   </si>
 </sst>
 </file>
@@ -709,9 +745,9 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -804,87 +840,70 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>106</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>86</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>154</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>156</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -892,7 +911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -957,7 +976,7 @@
         <v>129</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>130</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4">
@@ -982,22 +1001,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>138</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1005,7 +1024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1083,19 +1102,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
